--- a/NT/data/api_cases.xlsx
+++ b/NT/data/api_cases.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20628" windowHeight="8795"/>
+    <workbookView windowWidth="20688" windowHeight="8627"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>case_name</t>
   </si>
@@ -103,13 +105,25 @@
     <t>用户名或密码错误</t>
   </si>
   <si>
-    <t>login_controller5</t>
+    <t>login_controller7</t>
   </si>
   <si>
     <t>文件上传</t>
   </si>
   <si>
     <t>D:\\test_data\\summer_test_data_05.txt</t>
+  </si>
+  <si>
+    <t>login_controller8</t>
+  </si>
+  <si>
+    <t>的地方</t>
+  </si>
+  <si>
+    <t>发发发</t>
+  </si>
+  <si>
+    <t>方法</t>
   </si>
 </sst>
 </file>
@@ -117,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -146,14 +160,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,9 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,9 +197,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,21 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,32 +235,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,21 +290,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,31 +304,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,151 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,30 +495,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,23 +512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +542,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -589,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,130 +618,130 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,21 +1109,20 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7777777777778" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="31.7777777777778" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7777777777778" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1242,26 +1255,146 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
+    <row r="6" spans="6:6">
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/NT/data/api_cases.xlsx
+++ b/NT/data/api_cases.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20688" windowHeight="8627"/>
+    <workbookView windowWidth="20688" windowHeight="8627" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet name="考试" sheetId="2" r:id="rId2"/>
+    <sheet name="不知道发生法拉利大大萨阿德ddddd_dddd(dddddd)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -131,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,9 +158,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,7 +226,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,91 +256,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,11 +500,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,8 +540,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,48 +563,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +586,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,7 +827,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1108,7 +1108,7 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1319,6 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
@@ -1335,11 +1334,14 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="22.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">

--- a/NT/data/api_cases.xlsx
+++ b/NT/data/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20688" windowHeight="8627" activeTab="2"/>
+    <workbookView windowWidth="20688" windowHeight="8627" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>case_name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>乔一庭</t>
   </si>
   <si>
-    <t>用户名和密码都正确</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
@@ -69,7 +66,7 @@
     <t>吴斌</t>
   </si>
   <si>
-    <t>用户名和密码都不正确</t>
+    <t>None</t>
   </si>
   <si>
     <t>{"username": "hctest0", "password": "hctest0"}</t>
@@ -84,7 +81,7 @@
     <t>张跃鑫</t>
   </si>
   <si>
-    <t>密码正确用户名错误</t>
+    <t>none</t>
   </si>
   <si>
     <t>{"username": "hctest0", "password": "hctest"}</t>
@@ -105,16 +102,28 @@
     <t>用户名或密码错误</t>
   </si>
   <si>
+    <t>login_controller5</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>E:\auto_test_python\NT\data\api_cases.xlsx</t>
+  </si>
+  <si>
+    <t>login_controller6</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>D:\\test_data\\summer_test_data_05.txt</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>login_controller7</t>
-  </si>
-  <si>
-    <t>文件上传</t>
-  </si>
-  <si>
-    <t>D:\\test_data\\summer_test_data_05.txt</t>
-  </si>
-  <si>
-    <t>login_controller8</t>
   </si>
   <si>
     <t>的地方</t>
@@ -131,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -152,6 +161,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -159,6 +175,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -166,7 +204,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,61 +226,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,32 +266,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,25 +313,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,157 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,8 +510,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,26 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,6 +587,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -571,30 +604,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +624,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1118,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="$A3:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1158,20 +1167,18 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1179,25 +1186,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1205,25 +1212,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1231,32 +1238,55 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="6:6">
-      <c r="F6" s="2"/>
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1270,14 +1300,15 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="40.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1306,21 +1337,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1334,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1371,28 +1411,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/NT/data/api_cases.xlsx
+++ b/NT/data/api_cases.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20688" windowHeight="8627" activeTab="1"/>
+    <workbookView windowWidth="21936" windowHeight="8627"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
-    <sheet name="考试" sheetId="2" r:id="rId2"/>
-    <sheet name="不知道发生法拉利大大萨阿德ddddd_dddd(dddddd)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>case_name</t>
   </si>
@@ -33,7 +31,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>params</t>
+    <t>body</t>
   </si>
   <si>
     <t>msg</t>
@@ -42,97 +40,88 @@
     <t>code</t>
   </si>
   <si>
-    <t>login_controller1</t>
+    <t>登录</t>
   </si>
   <si>
     <t>乔一庭</t>
   </si>
   <si>
+    <t>用户名密码正确</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
-    <t>/web/login</t>
-  </si>
-  <si>
-    <t>{"username": "hctest", "password": "hctest"}</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>login_controller2</t>
-  </si>
-  <si>
-    <t>吴斌</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>{"username": "hctest0", "password": "hctest0"}</t>
-  </si>
-  <si>
-    <t>用户不存在</t>
-  </si>
-  <si>
-    <t>login_controller3</t>
-  </si>
-  <si>
-    <t>张跃鑫</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>{"username": "hctest0", "password": "hctest"}</t>
-  </si>
-  <si>
-    <t>login_controller4</t>
-  </si>
-  <si>
-    <t>李彬</t>
-  </si>
-  <si>
-    <t>用户名正确密码错误</t>
-  </si>
-  <si>
-    <t>{"username": "hctest", "password": "hctest0"}</t>
-  </si>
-  <si>
-    <t>用户名或密码错误</t>
-  </si>
-  <si>
-    <t>login_controller5</t>
-  </si>
-  <si>
-    <t>文件上传</t>
-  </si>
-  <si>
-    <t>E:\auto_test_python\NT\data\api_cases.xlsx</t>
-  </si>
-  <si>
-    <t>login_controller6</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>D:\\test_data\\summer_test_data_05.txt</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>login_controller7</t>
-  </si>
-  <si>
-    <t>的地方</t>
-  </si>
-  <si>
-    <t>发发发</t>
-  </si>
-  <si>
-    <t>方法</t>
+    <t>/super/account/login</t>
+  </si>
+  <si>
+    <t>{"username": "super", "password": "sel123!@#QW"}</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>list6</t>
+  </si>
+  <si>
+    <t>张永峰</t>
+  </si>
+  <si>
+    <t>获取分页信息</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/super/hospital/query/list</t>
+  </si>
+  <si>
+    <t>{"name": "百度", "page": 1, "PageSize": 10}</t>
+  </si>
+  <si>
+    <t>list1</t>
+  </si>
+  <si>
+    <t>获取地区列表</t>
+  </si>
+  <si>
+    <t>/super/area/query/list</t>
+  </si>
+  <si>
+    <t>pid=2</t>
+  </si>
+  <si>
+    <t>list2</t>
+  </si>
+  <si>
+    <t>获取医院级别列表</t>
+  </si>
+  <si>
+    <t>/super/dictionary/query/list</t>
+  </si>
+  <si>
+    <t>{"groupCode": "hospital.level"}</t>
+  </si>
+  <si>
+    <t>list3</t>
+  </si>
+  <si>
+    <t>获取医院列表</t>
+  </si>
+  <si>
+    <t>{"groupCode": "hospital.status"}</t>
+  </si>
+  <si>
+    <t>list4</t>
+  </si>
+  <si>
+    <t>{"page": 1,"PageSize":10}</t>
+  </si>
+  <si>
+    <t>list5</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -141,17 +130,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -161,13 +156,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,7 +163,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,22 +192,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,14 +238,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -266,16 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,8 +284,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,16 +505,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -570,6 +567,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,19 +594,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,137 +619,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,7 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,7 +831,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1115,22 +1110,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.2222222222222" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.8888888888889" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.2222222222222" style="1" customWidth="1"/>
     <col min="6" max="6" width="49.1111111111111" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7777777777778" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77777777777778" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1167,18 +1162,20 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1186,105 +1183,157 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1293,150 +1342,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="40.4444444444444" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="22.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/NT/data/api_cases.xlsx
+++ b/NT/data/api_cases.xlsx
@@ -8,13 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+  <si>
+    <t>http://testsuper.hushijie.com.cn</t>
+  </si>
   <si>
     <t>case_name</t>
   </si>
@@ -88,7 +92,7 @@
     <t>/super/area/query/list</t>
   </si>
   <si>
-    <t>pid=2</t>
+    <t>{"pid":2}</t>
   </si>
   <si>
     <t>list2</t>
@@ -122,6 +126,18 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>https://preadmin.hushijie.com.cn</t>
+  </si>
+  <si>
+    <t>list7</t>
+  </si>
+  <si>
+    <t>/dictionary/query/group</t>
+  </si>
+  <si>
+    <t>{"page": 1,"limit":10000}</t>
   </si>
 </sst>
 </file>
@@ -130,16 +146,24 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,6 +179,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -184,6 +243,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -191,30 +280,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,69 +314,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -308,31 +329,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,150 +510,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,50 +525,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,7 +553,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,15 +620,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,145 +640,163 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -831,7 +870,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1110,98 +1149,79 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="$A4:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1111111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.1111111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5555555555556" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.77777777777778" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -1209,25 +1229,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1235,25 +1255,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1261,85 +1281,197 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" s="1" customFormat="1" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://preadmin.hushijie.com.cn"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/NT/data/api_cases.xlsx
+++ b/NT/data/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21936" windowHeight="8627"/>
+    <workbookView windowWidth="22896" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <t>list5</t>
   </si>
   <si>
-    <t>""</t>
+    <t>{}</t>
   </si>
   <si>
     <t>https://preadmin.hushijie.com.cn</t>
@@ -145,8 +145,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -192,14 +192,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -208,28 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,40 +251,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,6 +282,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -296,9 +305,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,14 +319,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -329,25 +329,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,157 +479,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,30 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -573,11 +549,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,21 +620,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,137 +640,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,9 +783,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -794,12 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -870,7 +861,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1152,7 +1143,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1169,11 +1160,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1214,7 +1205,7 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1240,7 +1231,7 @@
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1266,7 +1257,7 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1292,7 +1283,7 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1318,7 +1309,7 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1344,10 +1335,10 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1370,7 +1361,7 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1413,7 +1404,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1454,10 +1445,10 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
